--- a/BookleDelivryInfo.xlsx
+++ b/BookleDelivryInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MJO-MF-005\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245706FB-6275-49EE-A808-DC6C4F3F460A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5AF33B-9444-45C7-A0E0-738A066C7A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,50 +146,89 @@
     <t>bookle.support@gamil.com</t>
   </si>
   <si>
+    <t>Dear [Publisher's Name],
+[vb]
+We hope this message finds you well. We have a new order that includes items from your inventory. Below are the details:
+[vb]
+Order Details &gt;&gt;
+[vb]
+Order Number: [Order Number] ,
+[vb]
+Customer Name: [Customer's Name] ,
+[vb]
+Customer Phone Number: [Customer's Phone Number] ,
+[vb]
+Delivery Timeframe: 1-3 days
+Books to Prepare:
+[vb]
+[Order items]
+[vb]
+Please ensure the items are ready for pickup by our delivery driver. If you have any questions or need clarification, feel free to reach out to us at [Website Contact Info].
+[vb]
+[vb]
+Thank you for your cooperation!
+[vb]
+Best regards,
+[vb]
+Customer Support Team
+[vb]
+Bookle Store</t>
+  </si>
+  <si>
     <t>Dear [Customer's Name],
+[vb]
 Thank you for your order! We’re excited to let you know that your order is currently being prepared. Delivery typically takes between 1 to 3 days.
+[vb]
 Order Details &gt;&gt;
-Order Number: [Order Number]
+[vb]
+Order Number: [Order Number] ,
+[vb]
 [Order items]
+[vb]
 Delivery Fee: [Delivery Fee]
+[vb]
 Total Price: [Total Price for All Items]
+[vb]
+[vb]
 If you have any questions or need further assistance, feel free to contact us at [Website Contact Info].
+[vb]
 Thank you for choosing Bookle Store!
+[vb]
 Best regards,
+[vb]
 Customer Care Team
+[vb]
 Bookle Store</t>
   </si>
   <si>
     <t>Dear [Driver's Name],
+[vb]
 You have a new delivery assignment. Below are the details:
+[vb]
 Order Details &gt;&gt;
-Order Number: [Order Number]
-Customer Name: [Customer's Name]
-Customer Address: [Customer's Address]
-Customer Phone Number: [Customer's Phone Number]
+[vb]
+Order Number: [Order Number] ,
+[vb]
+Customer Name: [Customer's Name] ,
+[vb]
+Customer Address: [Customer's Address] ,
+[vb]
+Customer Phone Number: [Customer's Phone Number] ,
+[vb]
 Delivery Timeframe: 1-3 days
 Items to Deliver:
+[vb]
 [Order items]
+[vb]
+[vb]
 Please ensure all items are picked up from the respective publishers and delivered to the customer on time. If you encounter any issues, don’t hesitate to contact us at [Website Contact Info].
+[vb]
 Thank you for your efforts!
+[vb]
 Best regards,
+[vb]
 Customer Support Team
-Bookle Store</t>
-  </si>
-  <si>
-    <t>Dear [Publisher's Name],
-We hope this message finds you well. We have a new order that includes items from your inventory. Below are the details:
-Order Details &gt;&gt;
-Order Number: [Order Number]
-Customer Name: [Customer's Name]
-Customer Phone Number: [Customer's Phone Number]
-Delivery Timeframe: 1-3 days
-Books to Prepare:
-[Order items]
-Please ensure the items are ready for pickup by our delivery driver. If you have any questions or need clarification, feel free to reach out to us at [Website Contact Info].
-Thank you for your cooperation!
-Best regards,
-Customer Support Team
+[vb]
 Bookle Store</t>
   </si>
 </sst>
@@ -743,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685A0FEC-5292-4F6E-A8B9-BC71C56C87F2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,15 +804,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="360" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
